--- a/Lab03/testCasesA.xlsx
+++ b/Lab03/testCasesA.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Req 1.1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Req 1.2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Req 2.1" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Req 2.2" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Req 3.1" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Req 3.2" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="69">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -106,6 +108,9 @@
     <t xml:space="preserve">Email: sarah.jones@email.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Test Case 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Race: 5k</t>
   </si>
   <si>
@@ -155,6 +160,78 @@
   </si>
   <si>
     <t xml:space="preserve">Full Marathon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB: 19601030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration: 20251029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration: 20251031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (30 -5)</t>
   </si>
 </sst>
 </file>
@@ -255,53 +332,69 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -499,196 +592,196 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>20250601</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>20250930</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>20251001</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>20251031</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>20251101</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>20260228</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>20260301</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>20260401</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>20260402</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>20260430</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>20260501</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>20260531</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -714,56 +807,56 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>19980502</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>19980503</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -783,230 +876,480 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="29.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="2" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="29.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="28.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="28.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="3" width="10.44"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="22">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A7:A11"/>
@@ -1015,6 +1358,20 @@
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="E12:E16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="G30:G34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1031,438 +1388,898 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="27.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="28.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11"/>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15"/>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="9"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15"/>
+      <c r="B43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="9"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15"/>
+      <c r="B44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" s="15"/>
+      <c r="N44" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15"/>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="9"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="G46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15"/>
+      <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="9"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15"/>
+      <c r="B48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="9"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15"/>
+      <c r="B49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="9"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="K49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15"/>
+      <c r="B50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8" t="s">
+      <c r="D50" s="15"/>
+      <c r="E50" s="9"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15"/>
+      <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="D51" s="15"/>
+      <c r="E51" s="9"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="N51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="34">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="A8:A13"/>
@@ -1475,6 +2292,964 @@
     <mergeCell ref="E20:E25"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="E26:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="J34:J39"/>
+    <mergeCell ref="M34:M39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="J40:J45"/>
+    <mergeCell ref="M40:M45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="J46:J51"/>
+    <mergeCell ref="M46:M51"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"FreeSerif,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"FreeSerif,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:I112"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="11.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="11.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="6" width="10.49"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>20251030</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>20251030</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>20251030</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>20251030</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>20251108</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <v>20251108</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>20251108</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10"/>
+      <c r="B46" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>20251108</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10"/>
+      <c r="B53" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>20260312</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10"/>
+      <c r="B60" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>20260312</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10"/>
+      <c r="B67" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>20260312</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10"/>
+      <c r="B74" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>20260312</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10"/>
+      <c r="B81" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="10"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>20260415</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10"/>
+      <c r="B88" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>20260415</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10"/>
+      <c r="B95" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="10"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>20260415</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10"/>
+      <c r="B102" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>20260415</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="10"/>
+      <c r="B109" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="6" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:A109"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"FreeSerif,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"FreeSerif,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Lab03/testCasesA.xlsx
+++ b/Lab03/testCasesA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Req 1.1" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,6 +14,8 @@
     <sheet name="Req 2.2" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Req 3.1" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="Req 3.2" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Req4.1" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Req4.2" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="84">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -232,6 +234,51 @@
   </si>
   <si>
     <t xml:space="preserve">25 (30 -5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify no Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Registration from 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Bundling W/O Senior Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k &amp; half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Bundling with Senior Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Registrant from 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify adding when @ 99 total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 Saturday runners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runner added to roster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify denial when @100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Sunday runners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday rosters full.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Saturday runners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday rosters full.</t>
   </si>
 </sst>
 </file>
@@ -249,7 +296,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -272,14 +318,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -287,7 +331,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -452,14 +495,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -467,67 +510,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -546,35 +547,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -589,7 +566,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B23 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,7 +577,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -631,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -645,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -659,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -673,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -687,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -701,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -715,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -729,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -743,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -757,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -771,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -804,7 +781,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B23 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,7 +792,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.78"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -846,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -879,7 +856,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B23 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,8 +1367,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="B23 A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2332,8 +2309,8 @@
   </sheetPr>
   <dimension ref="A2:I112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="1" sqref="B23 B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3130,8 +3107,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B23 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3259,4 +3236,409 @@
     <oddFooter>&amp;C&amp;"FreeSerif,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B23 B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <f aca="false">SUM((30 + 65) * 0.8)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <f aca="false">SUM((30 + 65) * 0.8)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="n">
+        <f aca="false">SUM((30 + 65) * 0.8 -10)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <f aca="false">SUM((30 + 65) * 0.8 -10)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"FreeSans,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"FreeSans,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"FreeSans,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"FreeSans,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>